--- a/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>60</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>190</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>80</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>240</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>140</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>200</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>100</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>80</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>20</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>60</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>140</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>60</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>280</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>80</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>180</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>330</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>40</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>660</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>200</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>60</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>40</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>280</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>80</v>

--- a/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,95 +460,95 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>60</v>
@@ -556,41 +556,25 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B18" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B19" t="n">
         <v>80</v>
       </c>
     </row>
@@ -638,7 +622,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4">

--- a/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -605,7 +606,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -687,6 +688,383 @@
       </c>
       <c r="B11" t="n">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41.75787721871605</v>
+      </c>
+      <c r="D2" t="n">
+        <v>229.0951921929195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>135</v>
+      </c>
+      <c r="C3" t="n">
+        <v>37.9373939098005</v>
+      </c>
+      <c r="D3" t="n">
+        <v>233.4842256177178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>133</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.2671626287762</v>
+      </c>
+      <c r="D4" t="n">
+        <v>222.675167047575</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>128</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37.84568805866978</v>
+      </c>
+      <c r="D5" t="n">
+        <v>224.532604009343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>127</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28.20484387606845</v>
+      </c>
+      <c r="D6" t="n">
+        <v>224.6365183531958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.12804921621887</v>
+      </c>
+      <c r="D7" t="n">
+        <v>218.215109193778</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>124</v>
+      </c>
+      <c r="C8" t="n">
+        <v>24.92596709360562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>218.3824988361867</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>122</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.74045055528656</v>
+      </c>
+      <c r="D9" t="n">
+        <v>216.338413079137</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>121</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34.38247187785373</v>
+      </c>
+      <c r="D10" t="n">
+        <v>214.4319434384239</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.56045225609064</v>
+      </c>
+      <c r="D11" t="n">
+        <v>219.0692437525979</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>116</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13.40484663658768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>211.5191961912268</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>115</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.23562788176203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>211.7262762475366</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>114</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21.20037528387802</v>
+      </c>
+      <c r="D14" t="n">
+        <v>209.3601948933515</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>108</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.836242156043185</v>
+      </c>
+      <c r="D15" t="n">
+        <v>197.6102435718698</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>104</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.64959993899677</v>
+      </c>
+      <c r="D16" t="n">
+        <v>199.6465241403371</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>99</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.812222082459811</v>
+      </c>
+      <c r="D17" t="n">
+        <v>186.4108198385327</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>98</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.435937680249829</v>
+      </c>
+      <c r="D18" t="n">
+        <v>196.0394045208313</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>97</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.346202088689691</v>
+      </c>
+      <c r="D19" t="n">
+        <v>192.8380709788172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.918548184673561</v>
+      </c>
+      <c r="D20" t="n">
+        <v>180.8531567268193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>95</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.880287491599779</v>
+      </c>
+      <c r="D21" t="n">
+        <v>186.6746068516349</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>94</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.289560818895257</v>
+      </c>
+      <c r="D22" t="n">
+        <v>182.7686942704138</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>93</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.748004073465728</v>
+      </c>
+      <c r="D23" t="n">
+        <v>191.1119688639035</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>92</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.509018272833162</v>
+      </c>
+      <c r="D24" t="n">
+        <v>190.6056227688772</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.347263902633939</v>
+      </c>
+      <c r="D25" t="n">
+        <v>184.8740050265195</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8Y97_po_data.xlsx
@@ -701,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,16 +720,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -738,12 +728,6 @@
       <c r="B2" t="n">
         <v>139</v>
       </c>
-      <c r="C2" t="n">
-        <v>41.75787721871605</v>
-      </c>
-      <c r="D2" t="n">
-        <v>229.0951921929195</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -752,12 +736,6 @@
       <c r="B3" t="n">
         <v>135</v>
       </c>
-      <c r="C3" t="n">
-        <v>37.9373939098005</v>
-      </c>
-      <c r="D3" t="n">
-        <v>233.4842256177178</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -766,12 +744,6 @@
       <c r="B4" t="n">
         <v>133</v>
       </c>
-      <c r="C4" t="n">
-        <v>42.2671626287762</v>
-      </c>
-      <c r="D4" t="n">
-        <v>222.675167047575</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -780,12 +752,6 @@
       <c r="B5" t="n">
         <v>128</v>
       </c>
-      <c r="C5" t="n">
-        <v>37.84568805866978</v>
-      </c>
-      <c r="D5" t="n">
-        <v>224.532604009343</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -794,12 +760,6 @@
       <c r="B6" t="n">
         <v>127</v>
       </c>
-      <c r="C6" t="n">
-        <v>28.20484387606845</v>
-      </c>
-      <c r="D6" t="n">
-        <v>224.6365183531958</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -808,12 +768,6 @@
       <c r="B7" t="n">
         <v>125</v>
       </c>
-      <c r="C7" t="n">
-        <v>31.12804921621887</v>
-      </c>
-      <c r="D7" t="n">
-        <v>218.215109193778</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -822,12 +776,6 @@
       <c r="B8" t="n">
         <v>124</v>
       </c>
-      <c r="C8" t="n">
-        <v>24.92596709360562</v>
-      </c>
-      <c r="D8" t="n">
-        <v>218.3824988361867</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -836,12 +784,6 @@
       <c r="B9" t="n">
         <v>122</v>
       </c>
-      <c r="C9" t="n">
-        <v>27.74045055528656</v>
-      </c>
-      <c r="D9" t="n">
-        <v>216.338413079137</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -850,12 +792,6 @@
       <c r="B10" t="n">
         <v>121</v>
       </c>
-      <c r="C10" t="n">
-        <v>34.38247187785373</v>
-      </c>
-      <c r="D10" t="n">
-        <v>214.4319434384239</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -864,12 +800,6 @@
       <c r="B11" t="n">
         <v>120</v>
       </c>
-      <c r="C11" t="n">
-        <v>15.56045225609064</v>
-      </c>
-      <c r="D11" t="n">
-        <v>219.0692437525979</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -878,12 +808,6 @@
       <c r="B12" t="n">
         <v>116</v>
       </c>
-      <c r="C12" t="n">
-        <v>13.40484663658768</v>
-      </c>
-      <c r="D12" t="n">
-        <v>211.5191961912268</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -892,12 +816,6 @@
       <c r="B13" t="n">
         <v>115</v>
       </c>
-      <c r="C13" t="n">
-        <v>20.23562788176203</v>
-      </c>
-      <c r="D13" t="n">
-        <v>211.7262762475366</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -906,12 +824,6 @@
       <c r="B14" t="n">
         <v>114</v>
       </c>
-      <c r="C14" t="n">
-        <v>21.20037528387802</v>
-      </c>
-      <c r="D14" t="n">
-        <v>209.3601948933515</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -920,12 +832,6 @@
       <c r="B15" t="n">
         <v>108</v>
       </c>
-      <c r="C15" t="n">
-        <v>7.836242156043185</v>
-      </c>
-      <c r="D15" t="n">
-        <v>197.6102435718698</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -934,12 +840,6 @@
       <c r="B16" t="n">
         <v>104</v>
       </c>
-      <c r="C16" t="n">
-        <v>10.64959993899677</v>
-      </c>
-      <c r="D16" t="n">
-        <v>199.6465241403371</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -948,12 +848,6 @@
       <c r="B17" t="n">
         <v>99</v>
       </c>
-      <c r="C17" t="n">
-        <v>6.812222082459811</v>
-      </c>
-      <c r="D17" t="n">
-        <v>186.4108198385327</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -962,12 +856,6 @@
       <c r="B18" t="n">
         <v>98</v>
       </c>
-      <c r="C18" t="n">
-        <v>8.435937680249829</v>
-      </c>
-      <c r="D18" t="n">
-        <v>196.0394045208313</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -976,12 +864,6 @@
       <c r="B19" t="n">
         <v>97</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.346202088689691</v>
-      </c>
-      <c r="D19" t="n">
-        <v>192.8380709788172</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -990,12 +872,6 @@
       <c r="B20" t="n">
         <v>96</v>
       </c>
-      <c r="C20" t="n">
-        <v>3.918548184673561</v>
-      </c>
-      <c r="D20" t="n">
-        <v>180.8531567268193</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1004,12 +880,6 @@
       <c r="B21" t="n">
         <v>95</v>
       </c>
-      <c r="C21" t="n">
-        <v>-2.880287491599779</v>
-      </c>
-      <c r="D21" t="n">
-        <v>186.6746068516349</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1018,12 +888,6 @@
       <c r="B22" t="n">
         <v>94</v>
       </c>
-      <c r="C22" t="n">
-        <v>-3.289560818895257</v>
-      </c>
-      <c r="D22" t="n">
-        <v>182.7686942704138</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1032,12 +896,6 @@
       <c r="B23" t="n">
         <v>93</v>
       </c>
-      <c r="C23" t="n">
-        <v>-2.748004073465728</v>
-      </c>
-      <c r="D23" t="n">
-        <v>191.1119688639035</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1046,12 +904,6 @@
       <c r="B24" t="n">
         <v>92</v>
       </c>
-      <c r="C24" t="n">
-        <v>-4.509018272833162</v>
-      </c>
-      <c r="D24" t="n">
-        <v>190.6056227688772</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1059,12 +911,6 @@
       </c>
       <c r="B25" t="n">
         <v>90</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-9.347263902633939</v>
-      </c>
-      <c r="D25" t="n">
-        <v>184.8740050265195</v>
       </c>
     </row>
   </sheetData>
